--- a/biology/Médecine/1312_en_santé_et_médecine/1312_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1312_en_santé_et_médecine/1312_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1312_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1312_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1312 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1312_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1312_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une ordonnance de Philippe le Bel « spécifie les poids dont les apothicaires doivent faire usage[1] ».
-Un hôpital est mentionné à Rab, en Croatie[2].
-L'hôpital de Bardon, entre Yzeure et Moulins, et les maisons-Dieu de Gannay et Pierrefitte sont cités dans un registre ecclésiastique du diocèse d'Autun[3].
-Hugues, frère d'Othon  IV, comte  palatin de Bourgogne, fonde à Apremont, dans le  canton de Gray, un  hôpital qu'il place sous l’invocation de saint Nicolas et dont il confie la charge aux frères hospitaliers[4].
-À la requête de la faculté de médecine de Paris, Clarice de Rothomago et son mari, Pierre Faverel, sont poursuivis pour exercice illégal de la médecine[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une ordonnance de Philippe le Bel « spécifie les poids dont les apothicaires doivent faire usage ».
+Un hôpital est mentionné à Rab, en Croatie.
+L'hôpital de Bardon, entre Yzeure et Moulins, et les maisons-Dieu de Gannay et Pierrefitte sont cités dans un registre ecclésiastique du diocèse d'Autun.
+Hugues, frère d'Othon  IV, comte  palatin de Bourgogne, fonde à Apremont, dans le  canton de Gray, un  hôpital qu'il place sous l’invocation de saint Nicolas et dont il confie la charge aux frères hospitaliers.
+À la requête de la faculté de médecine de Paris, Clarice de Rothomago et son mari, Pierre Faverel, sont poursuivis pour exercice illégal de la médecine.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1312_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1312_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1306-1312 : Henri de Mondeville, chirurgien de Philippe le Bel, rédige les deux premières parties – consacrées à l'anatomie et aux plaies, contusions et ulcères – de sa « Chirurgie », premier ouvrage publié sur ce thème en français, qu'il n'achèvera qu'en 1320[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1306-1312 : Henri de Mondeville, chirurgien de Philippe le Bel, rédige les deux premières parties – consacrées à l'anatomie et aux plaies, contusions et ulcères – de sa « Chirurgie », premier ouvrage publié sur ce thème en français, qu'il n'achèvera qu'en 1320.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1312_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1312_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Armengaud Blaise (né vers 1264), médecin de l'école de Montpellier, traducteur de l'arabe et de l'hébreu en latin, neveu d'Arnaud de Villeneuve, médecin de Jacques II, roi d'Aragon[7].
-1312 ? : Pierre Grymant (date de naissance inconnue), originaire d'Origny en Vermandois, clerc et médecin à Paris[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Armengaud Blaise (né vers 1264), médecin de l'école de Montpellier, traducteur de l'arabe et de l'hébreu en latin, neveu d'Arnaud de Villeneuve, médecin de Jacques II, roi d'Aragon.
+1312 ? : Pierre Grymant (date de naissance inconnue), originaire d'Origny en Vermandois, clerc et médecin à Paris.</t>
         </is>
       </c>
     </row>
